--- a/src/main/resources/excel/input.xlsx
+++ b/src/main/resources/excel/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/Documents/IntelliJ/ppd/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C626B8B-5031-E049-AA2E-49418764B662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACAADEE-C85A-7541-B389-5EEF8ED10BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="500" windowWidth="17900" windowHeight="21900" xr2:uid="{7D66666F-5514-C345-9189-20E6B0B7BE42}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{7D66666F-5514-C345-9189-20E6B0B7BE42}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>abcd</t>
   </si>
@@ -42,9 +42,6 @@
     <t>31 rue azer</t>
   </si>
   <si>
-    <t>weber.simon.perso@gmail.com</t>
-  </si>
-  <si>
     <t>0674653955</t>
   </si>
   <si>
@@ -78,25 +75,25 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
     <t>Date de naissance</t>
   </si>
   <si>
-    <t>1998-20-21</t>
-  </si>
-  <si>
-    <t>1998-20-12</t>
-  </si>
-  <si>
     <t>Adresse email</t>
   </si>
   <si>
     <t>Code postal</t>
+  </si>
+  <si>
+    <t>1998-12-30</t>
+  </si>
+  <si>
+    <t>homme</t>
+  </si>
+  <si>
+    <t>femme</t>
+  </si>
+  <si>
+    <t>simonweb98@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -141,11 +138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -464,7 +462,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,34 +474,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -514,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -532,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -546,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -560,19 +558,20 @@
       <c r="G3" s="2">
         <v>75116</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" display="webersimon.pro@gmail.com" xr:uid="{832352C0-5F26-1442-87A0-2BB120B52779}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{3F7AC1F3-0B56-EC49-A294-ED1C168EAAD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
